--- a/Data/metadata/KLV_metadata.xlsx
+++ b/Data/metadata/KLV_metadata.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384F0CD8-C00C-0349-8497-5AAE1903EC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB733C-4964-5947-A2CD-6598243AF0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1860" windowWidth="27240" windowHeight="16380" xr2:uid="{2E00DEFA-95D0-C545-8AD4-0EC535878323}"/>
+    <workbookView xWindow="5540" yWindow="3580" windowWidth="27240" windowHeight="16380" xr2:uid="{2E00DEFA-95D0-C545-8AD4-0EC535878323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -123,6 +123,42 @@
   </si>
   <si>
     <t>New Zealand</t>
+  </si>
+  <si>
+    <t>PDT</t>
+  </si>
+  <si>
+    <t>Steward Island</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>Tainui</t>
+  </si>
+  <si>
+    <t>expedition</t>
+  </si>
+  <si>
+    <t>WABO II</t>
+  </si>
+  <si>
+    <t>The Pinnacles Castlecliff, west of Wanganui</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>Gordon, Voje &amp; Taylor (2017)</t>
+  </si>
+  <si>
+    <t>May 6 1903</t>
+  </si>
+  <si>
+    <t>IGNS BZ 339</t>
+  </si>
+  <si>
+    <t>NHMUK1903.5.6.1.</t>
   </si>
 </sst>
 </file>
@@ -158,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1AACFA-1E30-044B-8521-9CB67195FB6F}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,50 +571,107 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1">
+        <v>42795</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -599,25 +693,25 @@
       <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>174.11733330000001</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>34</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Data/metadata/KLV_metadata.xlsx
+++ b/Data/metadata/KLV_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB733C-4964-5947-A2CD-6598243AF0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104D4B7-CD90-D84F-9189-59E843A80948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5540" yWindow="3580" windowWidth="27240" windowHeight="16380" xr2:uid="{2E00DEFA-95D0-C545-8AD4-0EC535878323}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/metadata/KLV_metadata.xlsx
+++ b/Data/metadata/KLV_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6104D4B7-CD90-D84F-9189-59E843A80948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5042C7B7-5301-DF48-A527-C0E44D24853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="3580" windowWidth="27240" windowHeight="16380" xr2:uid="{2E00DEFA-95D0-C545-8AD4-0EC535878323}"/>
+    <workbookView xWindow="9880" yWindow="3260" windowWidth="27240" windowHeight="16380" xr2:uid="{2E00DEFA-95D0-C545-8AD4-0EC535878323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
